--- a/Coupon(GU)/Sample Data.xlsx
+++ b/Coupon(GU)/Sample Data.xlsx
@@ -444,13 +444,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D1" sqref="D1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="10.44140625" bestFit="1" customWidth="1" min="2" max="2"/>
@@ -487,13 +487,101 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>232.0823118396559</v>
+        <v>219532.9298272338</v>
       </c>
       <c r="E2" t="n">
-        <v>398.3942372</v>
+        <v>401.9896848</v>
       </c>
       <c r="F2" t="n">
-        <v>268.4229510731553</v>
+        <v>281.1899679365556</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="D3" t="n">
+        <v>183319.3616426982</v>
+      </c>
+      <c r="E3" t="n">
+        <v>314.6873911532385</v>
+      </c>
+      <c r="F3" t="n">
+        <v>212.0244479250832</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>116481.4445770076</v>
+      </c>
+      <c r="E4" t="n">
+        <v>507.1875170625</v>
+      </c>
+      <c r="F4" t="n">
+        <v>460.0694249789463</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>174232.4839898683</v>
+      </c>
+      <c r="E5" t="n">
+        <v>319.0394323809523</v>
+      </c>
+      <c r="F5" t="n">
+        <v>223.1666412194886</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>160867.5968392054</v>
+      </c>
+      <c r="E6" t="n">
+        <v>279.24149</v>
+      </c>
+      <c r="F6" t="n">
+        <v>229.8919674324113</v>
       </c>
     </row>
   </sheetData>

--- a/Coupon(GU)/Sample Data.xlsx
+++ b/Coupon(GU)/Sample Data.xlsx
@@ -16,13 +16,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -45,8 +51,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,141 +455,160 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1048576"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="12.5546875" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="10.44140625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="13.77734375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="13.5546875" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="11.5546875" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="15.44140625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
+    <col width="25.6640625" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
+    <col width="30" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
+    <col width="19.77734375" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
+    <col width="8.88671875" customWidth="1" style="1" min="7" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Sample Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Width (mm)</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Thickness (mm)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Modulus of Elasticity (MPa)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Ultimate Tensile Strength (MPa)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Yield Strength (MPa)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>S1</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
         <v>2.5</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="1" t="n">
         <v>219532.9298272338</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="1" t="n">
         <v>401.9896848</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="1" t="n">
         <v>281.1899679365556</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>S2</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="1" t="n">
         <v>10.55</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="1" t="n">
         <v>183319.3616426982</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="1" t="n">
         <v>314.6873911532385</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="1" t="n">
         <v>212.0244479250832</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>S3</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="1" t="n">
         <v>116481.4445770076</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="1" t="n">
         <v>507.1875170625</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="1" t="n">
         <v>460.0694249789463</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>S4</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
         <v>3.5</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="1" t="n">
         <v>174232.4839898683</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="1" t="n">
         <v>319.0394323809523</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="1" t="n">
         <v>223.1666412194886</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>S5</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="1" t="n">
         <v>160867.5968392054</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="1" t="n">
         <v>279.24149</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="1" t="n">
         <v>229.8919674324113</v>
       </c>
     </row>
